--- a/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-77 Store Supplies_01.xlsx
+++ b/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-77 Store Supplies_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Import Files\Retail Item\WorkingXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058341EA-E5D9-486B-8EBB-23E4A80D7DF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35D6A49-0640-45E2-9CA9-56295E84C97E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -295,10 +295,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>GLOVE DISPOSABLE LARGE 500CT</t>
-  </si>
-  <si>
-    <t>77 01 230 Gloves</t>
+    <t>HERITAGE CAN LINER 33X39 LDP 100CT</t>
+  </si>
+  <si>
+    <t>77 01 110 Bags</t>
   </si>
   <si>
     <t>Count</t>
@@ -310,34 +310,46 @@
     <t>y</t>
   </si>
   <si>
+    <t>Default Strategy</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Transfer Group</t>
+  </si>
+  <si>
+    <t>XPRESS NAPKIN ENVIRONMENTAL 8.5X13</t>
+  </si>
+  <si>
+    <t>77 01 280 Napkins &amp; Towels</t>
+  </si>
+  <si>
+    <t>PACIFIC HANDY BOX CUTTER 5IN 12CT</t>
+  </si>
+  <si>
+    <t>77 01 340 Safety Equipment</t>
+  </si>
+  <si>
     <t>Each</t>
   </si>
   <si>
-    <t>Default Strategy</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>Transfer Group</t>
-  </si>
-  <si>
-    <t>GLOVE LATEX POWDER WHT LARGE</t>
-  </si>
-  <si>
-    <t>SQUEEGEE 8IN PLSTC HD 20</t>
+    <t>HRTGE CAN LNR 33X40 HDP 250CT 33GL 13MIC</t>
   </si>
   <si>
     <t>77 01 000 Unclassified</t>
   </si>
   <si>
+    <t>BUG BLITZER WINDSHLD CLN</t>
+  </si>
+  <si>
+    <t>77 01 160 Cleansers/Sanitizers</t>
+  </si>
+  <si>
     <t>TSN</t>
-  </si>
-  <si>
-    <t>SURE SOFT WATER PELLETS PLUS</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI7"/>
+  <dimension ref="A1:DI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1554,36 +1566,36 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="15"/>
-    <col min="43" max="43" width="19.33203125" style="13" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="6" customWidth="1"/>
-    <col min="46" max="103" width="15.6640625" customWidth="1"/>
-    <col min="104" max="113" width="19.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="15"/>
+    <col min="43" max="43" width="19.28515625" style="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="6" customWidth="1"/>
+    <col min="46" max="103" width="15.7109375" customWidth="1"/>
+    <col min="104" max="113" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="25"/>
       <c r="C1" s="34" t="s">
@@ -1710,7 +1722,7 @@
       <c r="DH1" s="32"/>
       <c r="DI1" s="33"/>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1915,7 +1927,7 @@
       <c r="DH2" s="27"/>
       <c r="DI2" s="28"/>
     </row>
-    <row r="3" spans="1:113" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="3"/>
@@ -2234,9 +2246,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37003266</v>
+        <v>1125776</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2260,7 +2272,7 @@
         <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
         <v>90</v>
@@ -2271,61 +2283,55 @@
       <c r="P4" t="s">
         <v>90</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AE4" t="s">
         <v>96</v>
       </c>
-      <c r="T4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>98</v>
       </c>
-      <c r="AL4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="CZ4" t="s">
         <v>99</v>
       </c>
-      <c r="CZ4" t="s">
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1125778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>37003269</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
         <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
       </c>
       <c r="G5" t="s">
         <v>93</v>
@@ -2337,7 +2343,7 @@
         <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
         <v>90</v>
@@ -2348,49 +2354,43 @@
       <c r="P5" t="s">
         <v>90</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AE5" t="s">
         <v>96</v>
       </c>
-      <c r="T5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" t="s">
         <v>97</v>
       </c>
-      <c r="AF5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AL5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
+      <c r="CZ5" t="s">
         <v>99</v>
       </c>
-      <c r="CZ5" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>37003316</v>
+        <v>1125927</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -2407,9 +2407,6 @@
       <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
       <c r="K6" t="s">
         <v>94</v>
       </c>
@@ -2429,48 +2426,48 @@
         <v>90</v>
       </c>
       <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="T6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ6" s="13" t="s">
+      <c r="CZ6" t="s">
         <v>99</v>
       </c>
-      <c r="CZ6" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1124900</v>
+        <v>1125928</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
@@ -2482,7 +2479,7 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
         <v>93</v>
@@ -2506,43 +2503,123 @@
         <v>90</v>
       </c>
       <c r="S7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE7" t="s">
         <v>96</v>
       </c>
-      <c r="T7" t="s">
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1126225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE8" t="s">
         <v>96</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" t="s">
         <v>97</v>
       </c>
-      <c r="AF7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AL8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AL7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO7" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="CZ8" t="s">
         <v>99</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
